--- a/sequences/14_retrieval_2.xlsx
+++ b/sequences/14_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1988,6 +1988,30 @@
       <c r="F5" t="s">
         <v>208</v>
       </c>
+      <c r="G5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" t="s">
+        <v>208</v>
+      </c>
+      <c r="M5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -2184,6 +2208,30 @@
       <c r="F10" t="s">
         <v>208</v>
       </c>
+      <c r="G10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" t="s">
+        <v>208</v>
+      </c>
+      <c r="M10" t="s">
+        <v>208</v>
+      </c>
+      <c r="N10" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
@@ -2204,6 +2252,30 @@
       <c r="F11" t="s">
         <v>208</v>
       </c>
+      <c r="G11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" t="s">
+        <v>208</v>
+      </c>
+      <c r="N11" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
@@ -2312,6 +2384,30 @@
       <c r="F14" t="s">
         <v>208</v>
       </c>
+      <c r="G14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" t="s">
+        <v>208</v>
+      </c>
+      <c r="J14" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" t="s">
+        <v>208</v>
+      </c>
+      <c r="M14" t="s">
+        <v>208</v>
+      </c>
+      <c r="N14" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
@@ -2332,6 +2428,30 @@
       <c r="F15" t="s">
         <v>208</v>
       </c>
+      <c r="G15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I15" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" t="s">
+        <v>208</v>
+      </c>
+      <c r="K15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" t="s">
+        <v>208</v>
+      </c>
+      <c r="M15" t="s">
+        <v>208</v>
+      </c>
+      <c r="N15" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
@@ -2396,6 +2516,30 @@
       <c r="F17" t="s">
         <v>208</v>
       </c>
+      <c r="G17" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" t="s">
+        <v>208</v>
+      </c>
+      <c r="I17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" t="s">
+        <v>208</v>
+      </c>
+      <c r="M17" t="s">
+        <v>208</v>
+      </c>
+      <c r="N17" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2636,6 +2780,30 @@
       <c r="F23" t="s">
         <v>208</v>
       </c>
+      <c r="G23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" t="s">
+        <v>208</v>
+      </c>
+      <c r="N23" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
@@ -2744,6 +2912,30 @@
       <c r="F26" t="s">
         <v>208</v>
       </c>
+      <c r="G26" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" t="s">
+        <v>208</v>
+      </c>
+      <c r="I26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" t="s">
+        <v>208</v>
+      </c>
+      <c r="N26" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
@@ -2896,6 +3088,30 @@
       <c r="F30" t="s">
         <v>208</v>
       </c>
+      <c r="G30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J30" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30" t="s">
+        <v>208</v>
+      </c>
+      <c r="N30" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -2916,6 +3132,30 @@
       <c r="F31" t="s">
         <v>208</v>
       </c>
+      <c r="G31" t="s">
+        <v>208</v>
+      </c>
+      <c r="H31" t="s">
+        <v>208</v>
+      </c>
+      <c r="I31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J31" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31" t="s">
+        <v>208</v>
+      </c>
+      <c r="L31" t="s">
+        <v>208</v>
+      </c>
+      <c r="M31" t="s">
+        <v>208</v>
+      </c>
+      <c r="N31" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
@@ -3200,6 +3440,30 @@
       <c r="F38" t="s">
         <v>208</v>
       </c>
+      <c r="G38" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I38" t="s">
+        <v>208</v>
+      </c>
+      <c r="J38" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N38" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
@@ -3396,6 +3660,30 @@
       <c r="F43" t="s">
         <v>208</v>
       </c>
+      <c r="G43" t="s">
+        <v>208</v>
+      </c>
+      <c r="H43" t="s">
+        <v>208</v>
+      </c>
+      <c r="I43" t="s">
+        <v>208</v>
+      </c>
+      <c r="J43" t="s">
+        <v>208</v>
+      </c>
+      <c r="K43" t="s">
+        <v>208</v>
+      </c>
+      <c r="L43" t="s">
+        <v>208</v>
+      </c>
+      <c r="M43" t="s">
+        <v>208</v>
+      </c>
+      <c r="N43" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
@@ -3460,6 +3748,30 @@
       <c r="F45" t="s">
         <v>208</v>
       </c>
+      <c r="G45" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" t="s">
+        <v>208</v>
+      </c>
+      <c r="I45" t="s">
+        <v>208</v>
+      </c>
+      <c r="J45" t="s">
+        <v>208</v>
+      </c>
+      <c r="K45" t="s">
+        <v>208</v>
+      </c>
+      <c r="L45" t="s">
+        <v>208</v>
+      </c>
+      <c r="M45" t="s">
+        <v>208</v>
+      </c>
+      <c r="N45" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
@@ -3480,6 +3792,30 @@
       <c r="F46" t="s">
         <v>208</v>
       </c>
+      <c r="G46" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" t="s">
+        <v>208</v>
+      </c>
+      <c r="I46" t="s">
+        <v>208</v>
+      </c>
+      <c r="J46" t="s">
+        <v>208</v>
+      </c>
+      <c r="K46" t="s">
+        <v>208</v>
+      </c>
+      <c r="L46" t="s">
+        <v>208</v>
+      </c>
+      <c r="M46" t="s">
+        <v>208</v>
+      </c>
+      <c r="N46" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
@@ -3500,6 +3836,30 @@
       <c r="F47" t="s">
         <v>208</v>
       </c>
+      <c r="G47" t="s">
+        <v>208</v>
+      </c>
+      <c r="H47" t="s">
+        <v>208</v>
+      </c>
+      <c r="I47" t="s">
+        <v>208</v>
+      </c>
+      <c r="J47" t="s">
+        <v>208</v>
+      </c>
+      <c r="K47" t="s">
+        <v>208</v>
+      </c>
+      <c r="L47" t="s">
+        <v>208</v>
+      </c>
+      <c r="M47" t="s">
+        <v>208</v>
+      </c>
+      <c r="N47" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
@@ -3564,6 +3924,30 @@
       <c r="F49" t="s">
         <v>208</v>
       </c>
+      <c r="G49" t="s">
+        <v>208</v>
+      </c>
+      <c r="H49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I49" t="s">
+        <v>208</v>
+      </c>
+      <c r="J49" t="s">
+        <v>208</v>
+      </c>
+      <c r="K49" t="s">
+        <v>208</v>
+      </c>
+      <c r="L49" t="s">
+        <v>208</v>
+      </c>
+      <c r="M49" t="s">
+        <v>208</v>
+      </c>
+      <c r="N49" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
@@ -3716,6 +4100,30 @@
       <c r="F53" t="s">
         <v>208</v>
       </c>
+      <c r="G53" t="s">
+        <v>208</v>
+      </c>
+      <c r="H53" t="s">
+        <v>208</v>
+      </c>
+      <c r="I53" t="s">
+        <v>208</v>
+      </c>
+      <c r="J53" t="s">
+        <v>208</v>
+      </c>
+      <c r="K53" t="s">
+        <v>208</v>
+      </c>
+      <c r="L53" t="s">
+        <v>208</v>
+      </c>
+      <c r="M53" t="s">
+        <v>208</v>
+      </c>
+      <c r="N53" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
@@ -3780,6 +4188,30 @@
       <c r="F55" t="s">
         <v>208</v>
       </c>
+      <c r="G55" t="s">
+        <v>208</v>
+      </c>
+      <c r="H55" t="s">
+        <v>208</v>
+      </c>
+      <c r="I55" t="s">
+        <v>208</v>
+      </c>
+      <c r="J55" t="s">
+        <v>208</v>
+      </c>
+      <c r="K55" t="s">
+        <v>208</v>
+      </c>
+      <c r="L55" t="s">
+        <v>208</v>
+      </c>
+      <c r="M55" t="s">
+        <v>208</v>
+      </c>
+      <c r="N55" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -3932,6 +4364,30 @@
       <c r="F59" t="s">
         <v>208</v>
       </c>
+      <c r="G59" t="s">
+        <v>208</v>
+      </c>
+      <c r="H59" t="s">
+        <v>208</v>
+      </c>
+      <c r="I59" t="s">
+        <v>208</v>
+      </c>
+      <c r="J59" t="s">
+        <v>208</v>
+      </c>
+      <c r="K59" t="s">
+        <v>208</v>
+      </c>
+      <c r="L59" t="s">
+        <v>208</v>
+      </c>
+      <c r="M59" t="s">
+        <v>208</v>
+      </c>
+      <c r="N59" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
@@ -3952,6 +4408,30 @@
       <c r="F60" t="s">
         <v>208</v>
       </c>
+      <c r="G60" t="s">
+        <v>208</v>
+      </c>
+      <c r="H60" t="s">
+        <v>208</v>
+      </c>
+      <c r="I60" t="s">
+        <v>208</v>
+      </c>
+      <c r="J60" t="s">
+        <v>208</v>
+      </c>
+      <c r="K60" t="s">
+        <v>208</v>
+      </c>
+      <c r="L60" t="s">
+        <v>208</v>
+      </c>
+      <c r="M60" t="s">
+        <v>208</v>
+      </c>
+      <c r="N60" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
@@ -4104,6 +4584,30 @@
       <c r="F64" t="s">
         <v>208</v>
       </c>
+      <c r="G64" t="s">
+        <v>208</v>
+      </c>
+      <c r="H64" t="s">
+        <v>208</v>
+      </c>
+      <c r="I64" t="s">
+        <v>208</v>
+      </c>
+      <c r="J64" t="s">
+        <v>208</v>
+      </c>
+      <c r="K64" t="s">
+        <v>208</v>
+      </c>
+      <c r="L64" t="s">
+        <v>208</v>
+      </c>
+      <c r="M64" t="s">
+        <v>208</v>
+      </c>
+      <c r="N64" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
@@ -4124,6 +4628,30 @@
       <c r="F65" t="s">
         <v>208</v>
       </c>
+      <c r="G65" t="s">
+        <v>208</v>
+      </c>
+      <c r="H65" t="s">
+        <v>208</v>
+      </c>
+      <c r="I65" t="s">
+        <v>208</v>
+      </c>
+      <c r="J65" t="s">
+        <v>208</v>
+      </c>
+      <c r="K65" t="s">
+        <v>208</v>
+      </c>
+      <c r="L65" t="s">
+        <v>208</v>
+      </c>
+      <c r="M65" t="s">
+        <v>208</v>
+      </c>
+      <c r="N65" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4232,6 +4760,30 @@
       <c r="F68" t="s">
         <v>208</v>
       </c>
+      <c r="G68" t="s">
+        <v>208</v>
+      </c>
+      <c r="H68" t="s">
+        <v>208</v>
+      </c>
+      <c r="I68" t="s">
+        <v>208</v>
+      </c>
+      <c r="J68" t="s">
+        <v>208</v>
+      </c>
+      <c r="K68" t="s">
+        <v>208</v>
+      </c>
+      <c r="L68" t="s">
+        <v>208</v>
+      </c>
+      <c r="M68" t="s">
+        <v>208</v>
+      </c>
+      <c r="N68" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
@@ -4340,6 +4892,30 @@
       <c r="F71" t="s">
         <v>208</v>
       </c>
+      <c r="G71" t="s">
+        <v>208</v>
+      </c>
+      <c r="H71" t="s">
+        <v>208</v>
+      </c>
+      <c r="I71" t="s">
+        <v>208</v>
+      </c>
+      <c r="J71" t="s">
+        <v>208</v>
+      </c>
+      <c r="K71" t="s">
+        <v>208</v>
+      </c>
+      <c r="L71" t="s">
+        <v>208</v>
+      </c>
+      <c r="M71" t="s">
+        <v>208</v>
+      </c>
+      <c r="N71" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
@@ -4404,6 +4980,30 @@
       <c r="F73" t="s">
         <v>208</v>
       </c>
+      <c r="G73" t="s">
+        <v>208</v>
+      </c>
+      <c r="H73" t="s">
+        <v>208</v>
+      </c>
+      <c r="I73" t="s">
+        <v>208</v>
+      </c>
+      <c r="J73" t="s">
+        <v>208</v>
+      </c>
+      <c r="K73" t="s">
+        <v>208</v>
+      </c>
+      <c r="L73" t="s">
+        <v>208</v>
+      </c>
+      <c r="M73" t="s">
+        <v>208</v>
+      </c>
+      <c r="N73" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
@@ -4644,6 +5244,30 @@
       <c r="F79" t="s">
         <v>208</v>
       </c>
+      <c r="G79" t="s">
+        <v>208</v>
+      </c>
+      <c r="H79" t="s">
+        <v>208</v>
+      </c>
+      <c r="I79" t="s">
+        <v>208</v>
+      </c>
+      <c r="J79" t="s">
+        <v>208</v>
+      </c>
+      <c r="K79" t="s">
+        <v>208</v>
+      </c>
+      <c r="L79" t="s">
+        <v>208</v>
+      </c>
+      <c r="M79" t="s">
+        <v>208</v>
+      </c>
+      <c r="N79" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
@@ -4884,6 +5508,30 @@
       <c r="F85" t="s">
         <v>208</v>
       </c>
+      <c r="G85" t="s">
+        <v>208</v>
+      </c>
+      <c r="H85" t="s">
+        <v>208</v>
+      </c>
+      <c r="I85" t="s">
+        <v>208</v>
+      </c>
+      <c r="J85" t="s">
+        <v>208</v>
+      </c>
+      <c r="K85" t="s">
+        <v>208</v>
+      </c>
+      <c r="L85" t="s">
+        <v>208</v>
+      </c>
+      <c r="M85" t="s">
+        <v>208</v>
+      </c>
+      <c r="N85" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
@@ -4904,6 +5552,30 @@
       <c r="F86" t="s">
         <v>208</v>
       </c>
+      <c r="G86" t="s">
+        <v>208</v>
+      </c>
+      <c r="H86" t="s">
+        <v>208</v>
+      </c>
+      <c r="I86" t="s">
+        <v>208</v>
+      </c>
+      <c r="J86" t="s">
+        <v>208</v>
+      </c>
+      <c r="K86" t="s">
+        <v>208</v>
+      </c>
+      <c r="L86" t="s">
+        <v>208</v>
+      </c>
+      <c r="M86" t="s">
+        <v>208</v>
+      </c>
+      <c r="N86" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
@@ -5012,6 +5684,30 @@
       <c r="F89" t="s">
         <v>208</v>
       </c>
+      <c r="G89" t="s">
+        <v>208</v>
+      </c>
+      <c r="H89" t="s">
+        <v>208</v>
+      </c>
+      <c r="I89" t="s">
+        <v>208</v>
+      </c>
+      <c r="J89" t="s">
+        <v>208</v>
+      </c>
+      <c r="K89" t="s">
+        <v>208</v>
+      </c>
+      <c r="L89" t="s">
+        <v>208</v>
+      </c>
+      <c r="M89" t="s">
+        <v>208</v>
+      </c>
+      <c r="N89" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
@@ -5208,6 +5904,30 @@
       <c r="F94" t="s">
         <v>208</v>
       </c>
+      <c r="G94" t="s">
+        <v>208</v>
+      </c>
+      <c r="H94" t="s">
+        <v>208</v>
+      </c>
+      <c r="I94" t="s">
+        <v>208</v>
+      </c>
+      <c r="J94" t="s">
+        <v>208</v>
+      </c>
+      <c r="K94" t="s">
+        <v>208</v>
+      </c>
+      <c r="L94" t="s">
+        <v>208</v>
+      </c>
+      <c r="M94" t="s">
+        <v>208</v>
+      </c>
+      <c r="N94" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
@@ -5360,6 +6080,30 @@
       <c r="F98" t="s">
         <v>208</v>
       </c>
+      <c r="G98" t="s">
+        <v>208</v>
+      </c>
+      <c r="H98" t="s">
+        <v>208</v>
+      </c>
+      <c r="I98" t="s">
+        <v>208</v>
+      </c>
+      <c r="J98" t="s">
+        <v>208</v>
+      </c>
+      <c r="K98" t="s">
+        <v>208</v>
+      </c>
+      <c r="L98" t="s">
+        <v>208</v>
+      </c>
+      <c r="M98" t="s">
+        <v>208</v>
+      </c>
+      <c r="N98" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
@@ -5424,6 +6168,30 @@
       <c r="F100" t="s">
         <v>208</v>
       </c>
+      <c r="G100" t="s">
+        <v>208</v>
+      </c>
+      <c r="H100" t="s">
+        <v>208</v>
+      </c>
+      <c r="I100" t="s">
+        <v>208</v>
+      </c>
+      <c r="J100" t="s">
+        <v>208</v>
+      </c>
+      <c r="K100" t="s">
+        <v>208</v>
+      </c>
+      <c r="L100" t="s">
+        <v>208</v>
+      </c>
+      <c r="M100" t="s">
+        <v>208</v>
+      </c>
+      <c r="N100" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
@@ -5444,6 +6212,30 @@
       <c r="F101" t="s">
         <v>208</v>
       </c>
+      <c r="G101" t="s">
+        <v>208</v>
+      </c>
+      <c r="H101" t="s">
+        <v>208</v>
+      </c>
+      <c r="I101" t="s">
+        <v>208</v>
+      </c>
+      <c r="J101" t="s">
+        <v>208</v>
+      </c>
+      <c r="K101" t="s">
+        <v>208</v>
+      </c>
+      <c r="L101" t="s">
+        <v>208</v>
+      </c>
+      <c r="M101" t="s">
+        <v>208</v>
+      </c>
+      <c r="N101" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5508,6 +6300,30 @@
       <c r="F103" t="s">
         <v>208</v>
       </c>
+      <c r="G103" t="s">
+        <v>208</v>
+      </c>
+      <c r="H103" t="s">
+        <v>208</v>
+      </c>
+      <c r="I103" t="s">
+        <v>208</v>
+      </c>
+      <c r="J103" t="s">
+        <v>208</v>
+      </c>
+      <c r="K103" t="s">
+        <v>208</v>
+      </c>
+      <c r="L103" t="s">
+        <v>208</v>
+      </c>
+      <c r="M103" t="s">
+        <v>208</v>
+      </c>
+      <c r="N103" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
@@ -5704,6 +6520,30 @@
       <c r="F108" t="s">
         <v>208</v>
       </c>
+      <c r="G108" t="s">
+        <v>208</v>
+      </c>
+      <c r="H108" t="s">
+        <v>208</v>
+      </c>
+      <c r="I108" t="s">
+        <v>208</v>
+      </c>
+      <c r="J108" t="s">
+        <v>208</v>
+      </c>
+      <c r="K108" t="s">
+        <v>208</v>
+      </c>
+      <c r="L108" t="s">
+        <v>208</v>
+      </c>
+      <c r="M108" t="s">
+        <v>208</v>
+      </c>
+      <c r="N108" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5988,6 +6828,30 @@
       <c r="F115" t="s">
         <v>208</v>
       </c>
+      <c r="G115" t="s">
+        <v>208</v>
+      </c>
+      <c r="H115" t="s">
+        <v>208</v>
+      </c>
+      <c r="I115" t="s">
+        <v>208</v>
+      </c>
+      <c r="J115" t="s">
+        <v>208</v>
+      </c>
+      <c r="K115" t="s">
+        <v>208</v>
+      </c>
+      <c r="L115" t="s">
+        <v>208</v>
+      </c>
+      <c r="M115" t="s">
+        <v>208</v>
+      </c>
+      <c r="N115" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
@@ -6008,6 +6872,30 @@
       <c r="F116" t="s">
         <v>208</v>
       </c>
+      <c r="G116" t="s">
+        <v>208</v>
+      </c>
+      <c r="H116" t="s">
+        <v>208</v>
+      </c>
+      <c r="I116" t="s">
+        <v>208</v>
+      </c>
+      <c r="J116" t="s">
+        <v>208</v>
+      </c>
+      <c r="K116" t="s">
+        <v>208</v>
+      </c>
+      <c r="L116" t="s">
+        <v>208</v>
+      </c>
+      <c r="M116" t="s">
+        <v>208</v>
+      </c>
+      <c r="N116" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
@@ -6028,6 +6916,30 @@
       <c r="F117" t="s">
         <v>208</v>
       </c>
+      <c r="G117" t="s">
+        <v>208</v>
+      </c>
+      <c r="H117" t="s">
+        <v>208</v>
+      </c>
+      <c r="I117" t="s">
+        <v>208</v>
+      </c>
+      <c r="J117" t="s">
+        <v>208</v>
+      </c>
+      <c r="K117" t="s">
+        <v>208</v>
+      </c>
+      <c r="L117" t="s">
+        <v>208</v>
+      </c>
+      <c r="M117" t="s">
+        <v>208</v>
+      </c>
+      <c r="N117" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
@@ -6136,6 +7048,30 @@
       <c r="F120" t="s">
         <v>208</v>
       </c>
+      <c r="G120" t="s">
+        <v>208</v>
+      </c>
+      <c r="H120" t="s">
+        <v>208</v>
+      </c>
+      <c r="I120" t="s">
+        <v>208</v>
+      </c>
+      <c r="J120" t="s">
+        <v>208</v>
+      </c>
+      <c r="K120" t="s">
+        <v>208</v>
+      </c>
+      <c r="L120" t="s">
+        <v>208</v>
+      </c>
+      <c r="M120" t="s">
+        <v>208</v>
+      </c>
+      <c r="N120" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
@@ -6244,6 +7180,30 @@
       <c r="F123" t="s">
         <v>208</v>
       </c>
+      <c r="G123" t="s">
+        <v>208</v>
+      </c>
+      <c r="H123" t="s">
+        <v>208</v>
+      </c>
+      <c r="I123" t="s">
+        <v>208</v>
+      </c>
+      <c r="J123" t="s">
+        <v>208</v>
+      </c>
+      <c r="K123" t="s">
+        <v>208</v>
+      </c>
+      <c r="L123" t="s">
+        <v>208</v>
+      </c>
+      <c r="M123" t="s">
+        <v>208</v>
+      </c>
+      <c r="N123" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6308,6 +7268,30 @@
       <c r="F125" t="s">
         <v>208</v>
       </c>
+      <c r="G125" t="s">
+        <v>208</v>
+      </c>
+      <c r="H125" t="s">
+        <v>208</v>
+      </c>
+      <c r="I125" t="s">
+        <v>208</v>
+      </c>
+      <c r="J125" t="s">
+        <v>208</v>
+      </c>
+      <c r="K125" t="s">
+        <v>208</v>
+      </c>
+      <c r="L125" t="s">
+        <v>208</v>
+      </c>
+      <c r="M125" t="s">
+        <v>208</v>
+      </c>
+      <c r="N125" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
@@ -6504,6 +7488,30 @@
       <c r="F130" t="s">
         <v>208</v>
       </c>
+      <c r="G130" t="s">
+        <v>208</v>
+      </c>
+      <c r="H130" t="s">
+        <v>208</v>
+      </c>
+      <c r="I130" t="s">
+        <v>208</v>
+      </c>
+      <c r="J130" t="s">
+        <v>208</v>
+      </c>
+      <c r="K130" t="s">
+        <v>208</v>
+      </c>
+      <c r="L130" t="s">
+        <v>208</v>
+      </c>
+      <c r="M130" t="s">
+        <v>208</v>
+      </c>
+      <c r="N130" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
@@ -6568,6 +7576,30 @@
       <c r="F132" t="s">
         <v>208</v>
       </c>
+      <c r="G132" t="s">
+        <v>208</v>
+      </c>
+      <c r="H132" t="s">
+        <v>208</v>
+      </c>
+      <c r="I132" t="s">
+        <v>208</v>
+      </c>
+      <c r="J132" t="s">
+        <v>208</v>
+      </c>
+      <c r="K132" t="s">
+        <v>208</v>
+      </c>
+      <c r="L132" t="s">
+        <v>208</v>
+      </c>
+      <c r="M132" t="s">
+        <v>208</v>
+      </c>
+      <c r="N132" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
@@ -6632,6 +7664,30 @@
       <c r="F134" t="s">
         <v>208</v>
       </c>
+      <c r="G134" t="s">
+        <v>208</v>
+      </c>
+      <c r="H134" t="s">
+        <v>208</v>
+      </c>
+      <c r="I134" t="s">
+        <v>208</v>
+      </c>
+      <c r="J134" t="s">
+        <v>208</v>
+      </c>
+      <c r="K134" t="s">
+        <v>208</v>
+      </c>
+      <c r="L134" t="s">
+        <v>208</v>
+      </c>
+      <c r="M134" t="s">
+        <v>208</v>
+      </c>
+      <c r="N134" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
@@ -6652,6 +7708,30 @@
       <c r="F135" t="s">
         <v>208</v>
       </c>
+      <c r="G135" t="s">
+        <v>208</v>
+      </c>
+      <c r="H135" t="s">
+        <v>208</v>
+      </c>
+      <c r="I135" t="s">
+        <v>208</v>
+      </c>
+      <c r="J135" t="s">
+        <v>208</v>
+      </c>
+      <c r="K135" t="s">
+        <v>208</v>
+      </c>
+      <c r="L135" t="s">
+        <v>208</v>
+      </c>
+      <c r="M135" t="s">
+        <v>208</v>
+      </c>
+      <c r="N135" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6848,6 +7928,30 @@
       <c r="F140" t="s">
         <v>208</v>
       </c>
+      <c r="G140" t="s">
+        <v>208</v>
+      </c>
+      <c r="H140" t="s">
+        <v>208</v>
+      </c>
+      <c r="I140" t="s">
+        <v>208</v>
+      </c>
+      <c r="J140" t="s">
+        <v>208</v>
+      </c>
+      <c r="K140" t="s">
+        <v>208</v>
+      </c>
+      <c r="L140" t="s">
+        <v>208</v>
+      </c>
+      <c r="M140" t="s">
+        <v>208</v>
+      </c>
+      <c r="N140" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
@@ -7088,6 +8192,30 @@
       <c r="F146" t="s">
         <v>208</v>
       </c>
+      <c r="G146" t="s">
+        <v>208</v>
+      </c>
+      <c r="H146" t="s">
+        <v>208</v>
+      </c>
+      <c r="I146" t="s">
+        <v>208</v>
+      </c>
+      <c r="J146" t="s">
+        <v>208</v>
+      </c>
+      <c r="K146" t="s">
+        <v>208</v>
+      </c>
+      <c r="L146" t="s">
+        <v>208</v>
+      </c>
+      <c r="M146" t="s">
+        <v>208</v>
+      </c>
+      <c r="N146" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
@@ -7240,6 +8368,30 @@
       <c r="F150" t="s">
         <v>208</v>
       </c>
+      <c r="G150" t="s">
+        <v>208</v>
+      </c>
+      <c r="H150" t="s">
+        <v>208</v>
+      </c>
+      <c r="I150" t="s">
+        <v>208</v>
+      </c>
+      <c r="J150" t="s">
+        <v>208</v>
+      </c>
+      <c r="K150" t="s">
+        <v>208</v>
+      </c>
+      <c r="L150" t="s">
+        <v>208</v>
+      </c>
+      <c r="M150" t="s">
+        <v>208</v>
+      </c>
+      <c r="N150" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
@@ -7348,6 +8500,30 @@
       <c r="F153" t="s">
         <v>208</v>
       </c>
+      <c r="G153" t="s">
+        <v>208</v>
+      </c>
+      <c r="H153" t="s">
+        <v>208</v>
+      </c>
+      <c r="I153" t="s">
+        <v>208</v>
+      </c>
+      <c r="J153" t="s">
+        <v>208</v>
+      </c>
+      <c r="K153" t="s">
+        <v>208</v>
+      </c>
+      <c r="L153" t="s">
+        <v>208</v>
+      </c>
+      <c r="M153" t="s">
+        <v>208</v>
+      </c>
+      <c r="N153" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
@@ -7456,6 +8632,30 @@
       <c r="F156" t="s">
         <v>208</v>
       </c>
+      <c r="G156" t="s">
+        <v>208</v>
+      </c>
+      <c r="H156" t="s">
+        <v>208</v>
+      </c>
+      <c r="I156" t="s">
+        <v>208</v>
+      </c>
+      <c r="J156" t="s">
+        <v>208</v>
+      </c>
+      <c r="K156" t="s">
+        <v>208</v>
+      </c>
+      <c r="L156" t="s">
+        <v>208</v>
+      </c>
+      <c r="M156" t="s">
+        <v>208</v>
+      </c>
+      <c r="N156" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7520,6 +8720,30 @@
       <c r="F158" t="s">
         <v>208</v>
       </c>
+      <c r="G158" t="s">
+        <v>208</v>
+      </c>
+      <c r="H158" t="s">
+        <v>208</v>
+      </c>
+      <c r="I158" t="s">
+        <v>208</v>
+      </c>
+      <c r="J158" t="s">
+        <v>208</v>
+      </c>
+      <c r="K158" t="s">
+        <v>208</v>
+      </c>
+      <c r="L158" t="s">
+        <v>208</v>
+      </c>
+      <c r="M158" t="s">
+        <v>208</v>
+      </c>
+      <c r="N158" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
@@ -7672,6 +8896,30 @@
       <c r="F162" t="s">
         <v>208</v>
       </c>
+      <c r="G162" t="s">
+        <v>208</v>
+      </c>
+      <c r="H162" t="s">
+        <v>208</v>
+      </c>
+      <c r="I162" t="s">
+        <v>208</v>
+      </c>
+      <c r="J162" t="s">
+        <v>208</v>
+      </c>
+      <c r="K162" t="s">
+        <v>208</v>
+      </c>
+      <c r="L162" t="s">
+        <v>208</v>
+      </c>
+      <c r="M162" t="s">
+        <v>208</v>
+      </c>
+      <c r="N162" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
@@ -7692,6 +8940,30 @@
       <c r="F163" t="s">
         <v>208</v>
       </c>
+      <c r="G163" t="s">
+        <v>208</v>
+      </c>
+      <c r="H163" t="s">
+        <v>208</v>
+      </c>
+      <c r="I163" t="s">
+        <v>208</v>
+      </c>
+      <c r="J163" t="s">
+        <v>208</v>
+      </c>
+      <c r="K163" t="s">
+        <v>208</v>
+      </c>
+      <c r="L163" t="s">
+        <v>208</v>
+      </c>
+      <c r="M163" t="s">
+        <v>208</v>
+      </c>
+      <c r="N163" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
@@ -7712,6 +8984,30 @@
       <c r="F164" t="s">
         <v>208</v>
       </c>
+      <c r="G164" t="s">
+        <v>208</v>
+      </c>
+      <c r="H164" t="s">
+        <v>208</v>
+      </c>
+      <c r="I164" t="s">
+        <v>208</v>
+      </c>
+      <c r="J164" t="s">
+        <v>208</v>
+      </c>
+      <c r="K164" t="s">
+        <v>208</v>
+      </c>
+      <c r="L164" t="s">
+        <v>208</v>
+      </c>
+      <c r="M164" t="s">
+        <v>208</v>
+      </c>
+      <c r="N164" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
@@ -7820,6 +9116,30 @@
       <c r="F167" t="s">
         <v>208</v>
       </c>
+      <c r="G167" t="s">
+        <v>208</v>
+      </c>
+      <c r="H167" t="s">
+        <v>208</v>
+      </c>
+      <c r="I167" t="s">
+        <v>208</v>
+      </c>
+      <c r="J167" t="s">
+        <v>208</v>
+      </c>
+      <c r="K167" t="s">
+        <v>208</v>
+      </c>
+      <c r="L167" t="s">
+        <v>208</v>
+      </c>
+      <c r="M167" t="s">
+        <v>208</v>
+      </c>
+      <c r="N167" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
@@ -7972,6 +9292,30 @@
       <c r="F171" t="s">
         <v>208</v>
       </c>
+      <c r="G171" t="s">
+        <v>208</v>
+      </c>
+      <c r="H171" t="s">
+        <v>208</v>
+      </c>
+      <c r="I171" t="s">
+        <v>208</v>
+      </c>
+      <c r="J171" t="s">
+        <v>208</v>
+      </c>
+      <c r="K171" t="s">
+        <v>208</v>
+      </c>
+      <c r="L171" t="s">
+        <v>208</v>
+      </c>
+      <c r="M171" t="s">
+        <v>208</v>
+      </c>
+      <c r="N171" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
@@ -8212,6 +9556,30 @@
       <c r="F177" t="s">
         <v>208</v>
       </c>
+      <c r="G177" t="s">
+        <v>208</v>
+      </c>
+      <c r="H177" t="s">
+        <v>208</v>
+      </c>
+      <c r="I177" t="s">
+        <v>208</v>
+      </c>
+      <c r="J177" t="s">
+        <v>208</v>
+      </c>
+      <c r="K177" t="s">
+        <v>208</v>
+      </c>
+      <c r="L177" t="s">
+        <v>208</v>
+      </c>
+      <c r="M177" t="s">
+        <v>208</v>
+      </c>
+      <c r="N177" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
@@ -8276,6 +9644,30 @@
       <c r="F179" t="s">
         <v>208</v>
       </c>
+      <c r="G179" t="s">
+        <v>208</v>
+      </c>
+      <c r="H179" t="s">
+        <v>208</v>
+      </c>
+      <c r="I179" t="s">
+        <v>208</v>
+      </c>
+      <c r="J179" t="s">
+        <v>208</v>
+      </c>
+      <c r="K179" t="s">
+        <v>208</v>
+      </c>
+      <c r="L179" t="s">
+        <v>208</v>
+      </c>
+      <c r="M179" t="s">
+        <v>208</v>
+      </c>
+      <c r="N179" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
@@ -8340,6 +9732,30 @@
       <c r="F181" t="s">
         <v>208</v>
       </c>
+      <c r="G181" t="s">
+        <v>208</v>
+      </c>
+      <c r="H181" t="s">
+        <v>208</v>
+      </c>
+      <c r="I181" t="s">
+        <v>208</v>
+      </c>
+      <c r="J181" t="s">
+        <v>208</v>
+      </c>
+      <c r="K181" t="s">
+        <v>208</v>
+      </c>
+      <c r="L181" t="s">
+        <v>208</v>
+      </c>
+      <c r="M181" t="s">
+        <v>208</v>
+      </c>
+      <c r="N181" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1">
@@ -8360,6 +9776,30 @@
       <c r="F182" t="s">
         <v>208</v>
       </c>
+      <c r="G182" t="s">
+        <v>208</v>
+      </c>
+      <c r="H182" t="s">
+        <v>208</v>
+      </c>
+      <c r="I182" t="s">
+        <v>208</v>
+      </c>
+      <c r="J182" t="s">
+        <v>208</v>
+      </c>
+      <c r="K182" t="s">
+        <v>208</v>
+      </c>
+      <c r="L182" t="s">
+        <v>208</v>
+      </c>
+      <c r="M182" t="s">
+        <v>208</v>
+      </c>
+      <c r="N182" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
@@ -8468,6 +9908,30 @@
       <c r="F185" t="s">
         <v>208</v>
       </c>
+      <c r="G185" t="s">
+        <v>208</v>
+      </c>
+      <c r="H185" t="s">
+        <v>208</v>
+      </c>
+      <c r="I185" t="s">
+        <v>208</v>
+      </c>
+      <c r="J185" t="s">
+        <v>208</v>
+      </c>
+      <c r="K185" t="s">
+        <v>208</v>
+      </c>
+      <c r="L185" t="s">
+        <v>208</v>
+      </c>
+      <c r="M185" t="s">
+        <v>208</v>
+      </c>
+      <c r="N185" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
@@ -8576,6 +10040,30 @@
       <c r="F188" t="s">
         <v>208</v>
       </c>
+      <c r="G188" t="s">
+        <v>208</v>
+      </c>
+      <c r="H188" t="s">
+        <v>208</v>
+      </c>
+      <c r="I188" t="s">
+        <v>208</v>
+      </c>
+      <c r="J188" t="s">
+        <v>208</v>
+      </c>
+      <c r="K188" t="s">
+        <v>208</v>
+      </c>
+      <c r="L188" t="s">
+        <v>208</v>
+      </c>
+      <c r="M188" t="s">
+        <v>208</v>
+      </c>
+      <c r="N188" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
@@ -8684,6 +10172,30 @@
       <c r="F191" t="s">
         <v>208</v>
       </c>
+      <c r="G191" t="s">
+        <v>208</v>
+      </c>
+      <c r="H191" t="s">
+        <v>208</v>
+      </c>
+      <c r="I191" t="s">
+        <v>208</v>
+      </c>
+      <c r="J191" t="s">
+        <v>208</v>
+      </c>
+      <c r="K191" t="s">
+        <v>208</v>
+      </c>
+      <c r="L191" t="s">
+        <v>208</v>
+      </c>
+      <c r="M191" t="s">
+        <v>208</v>
+      </c>
+      <c r="N191" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="1">
@@ -8729,7 +10241,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:14">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8746,6 +10258,30 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
+        <v>208</v>
+      </c>
+      <c r="G193" t="s">
+        <v>208</v>
+      </c>
+      <c r="H193" t="s">
+        <v>208</v>
+      </c>
+      <c r="I193" t="s">
+        <v>208</v>
+      </c>
+      <c r="J193" t="s">
+        <v>208</v>
+      </c>
+      <c r="K193" t="s">
+        <v>208</v>
+      </c>
+      <c r="L193" t="s">
+        <v>208</v>
+      </c>
+      <c r="M193" t="s">
+        <v>208</v>
+      </c>
+      <c r="N193" t="s">
         <v>208</v>
       </c>
     </row>

--- a/sequences/14_retrieval_2.xlsx
+++ b/sequences/14_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>stellen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
     <t>pflegen</t>
   </si>
   <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>pissen</t>
+  </si>
+  <si>
     <t>danken</t>
   </si>
   <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>rauchen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>melden</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>eignen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>klingeln</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>foltern</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>tauchen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>fehlen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>morden</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>rauben</t>
   </si>
   <si>
     <t>trauen</t>
   </si>
   <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
     <t>folgen</t>
   </si>
   <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>trösten</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>gelten</t>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>ahnen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
   </si>
   <si>
     <t>schicken</t>
   </si>
   <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>schämen</t>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>schnellen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>warnen</t>
   </si>
   <si>
     <t>betteln</t>
   </si>
   <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>meistern</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>husten</t>
+    <t>tanzen</t>
   </si>
   <si>
     <t>siegen</t>
   </si>
   <si>
-    <t>stürzen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>wärmen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>daten</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>schauen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>feiern</t>
-  </si>
-  <si>
-    <t>brauen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>zittern</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>scheiden</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>klingeln</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>klauen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>beichten</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>lenken</t>
+    <t>treffen</t>
   </si>
   <si>
     <t>house/house000.jpg</t>
